--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukie\source\repos\SimsigImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C540868E-D60B-440E-9170-E7D3D6A6BE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5EC37F-CDD5-4288-B336-9F5D1AB41F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1161C59C-3AE7-4B35-ABC8-2123C8C6623B}"/>
+    <workbookView xWindow="19090" yWindow="-10830" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{1161C59C-3AE7-4B35-ABC8-2123C8C6623B}"/>
   </bookViews>
   <sheets>
     <sheet name="Seed Groups" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>INSERTHERE</t>
+  </si>
+  <si>
+    <t>1M00</t>
+  </si>
+  <si>
+    <t>1M01</t>
   </si>
 </sst>
 </file>
@@ -641,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7858847A-F0D3-434C-9565-DB06C73D8860}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -674,13 +680,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52C7610-3C21-45C1-A819-83D8DB5DD38A}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -711,7 +718,9 @@
         <v>51</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
@@ -1329,12 +1338,13 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,7 +1375,9 @@
         <v>51</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukie\source\repos\SimsigImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5EC37F-CDD5-4288-B336-9F5D1AB41F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533090C6-7048-4252-B303-620E508A5757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-10830" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{1161C59C-3AE7-4B35-ABC8-2123C8C6623B}"/>
+    <workbookView xWindow="19090" yWindow="-10830" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{1161C59C-3AE7-4B35-ABC8-2123C8C6623B}"/>
   </bookViews>
   <sheets>
     <sheet name="Seed Groups" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -216,6 +216,24 @@
   </si>
   <si>
     <t>1M01</t>
+  </si>
+  <si>
+    <t>AsRequired</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>MSO</t>
+  </si>
+  <si>
+    <t>1M00-01</t>
+  </si>
+  <si>
+    <t>S120</t>
   </si>
 </sst>
 </file>
@@ -678,10 +696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52C7610-3C21-45C1-A819-83D8DB5DD38A}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +711,9 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
@@ -729,7 +749,9 @@
         <v>53</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
@@ -763,41 +785,43 @@
         <v>47</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>54</v>
-      </c>
+      <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -808,7 +832,9 @@
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -830,7 +856,7 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -841,7 +867,7 @@
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -885,7 +911,7 @@
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -962,7 +988,7 @@
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -984,7 +1010,7 @@
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -1006,11 +1032,11 @@
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -1028,22 +1054,26 @@
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -1133,34 +1163,34 @@
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="11"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
@@ -1173,8 +1203,8 @@
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -1188,29 +1218,30 @@
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="4"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="11"/>
-      <c r="E58" s="4"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="11"/>
@@ -1223,32 +1254,31 @@
       <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
@@ -1265,17 +1295,18 @@
       <c r="E67" s="5"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
@@ -1290,20 +1321,20 @@
       <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
@@ -1324,8 +1355,14 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1335,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F9D0A2-ADCA-4890-BA88-64C3FB71B5B9}">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,28 +1462,36 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1462,27 +1507,19 @@
     <row r="27" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="14"/>
+    </row>
     <row r="32" spans="5:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="J34" s="13"/>
-    </row>
+    <row r="34" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
-      <c r="I35" s="13"/>
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1494,19 +1531,14 @@
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+      <c r="I37" s="13"/>
       <c r="J37" s="13"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
@@ -1531,7 +1563,7 @@
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="13"/>
+      <c r="I39" s="12"/>
       <c r="J39" s="13"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
@@ -1610,8 +1642,8 @@
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -1624,12 +1656,12 @@
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+      <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
@@ -1639,7 +1671,7 @@
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
+      <c r="E47" s="13"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -1652,8 +1684,8 @@
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -1666,8 +1698,8 @@
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -1685,7 +1717,7 @@
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
-      <c r="I50" s="13"/>
+      <c r="I50" s="12"/>
       <c r="J50" s="13"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
@@ -1694,12 +1726,12 @@
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
+      <c r="I51" s="13"/>
       <c r="J51" s="13"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
@@ -1723,7 +1755,7 @@
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="13"/>
+      <c r="E53" s="14"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -1737,11 +1769,11 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
+      <c r="E54" s="13"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
-      <c r="I54" s="13"/>
+      <c r="I54" s="12"/>
       <c r="J54" s="13"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
@@ -1751,21 +1783,21 @@
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="13"/>
+      <c r="E55" s="14"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="E56" s="13"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -1775,7 +1807,7 @@
       <c r="L56" s="12"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="14"/>
@@ -1803,11 +1835,11 @@
       <c r="L58" s="12"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -1831,7 +1863,7 @@
       <c r="L60" s="12"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -1848,8 +1880,8 @@
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -1929,7 +1961,7 @@
       <c r="L67" s="12"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="15"/>
@@ -1985,7 +2017,7 @@
       <c r="L71" s="12"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="15"/>
@@ -1999,7 +2031,7 @@
       <c r="L72" s="12"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="15"/>
@@ -2016,8 +2048,8 @@
       <c r="A74" s="12"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
@@ -2030,8 +2062,8 @@
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
@@ -2056,8 +2088,8 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -2068,9 +2100,23 @@
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
     </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H33:J54">
-    <sortCondition descending="1" ref="H33:H54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H34:J55">
+    <sortCondition descending="1" ref="H34:H55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
